--- a/Data Preparation & Analysis/Outputs/Healthshockresponse.xlsx
+++ b/Data Preparation & Analysis/Outputs/Healthshockresponse.xlsx
@@ -143,79 +143,79 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.9999999597432121</v>
+        <v>1.0000000279101113</v>
       </c>
       <c r="B1">
-        <v>0.98430381507189779</v>
+        <v>0.9839356088382355</v>
       </c>
       <c r="C1">
-        <v>1.0156961044145265</v>
+        <v>1.0160644469819873</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.94718764122221688</v>
+        <v>0.94999865762972824</v>
       </c>
       <c r="B2">
-        <v>0.93842031505499679</v>
+        <v>0.94119784563701614</v>
       </c>
       <c r="C2">
-        <v>0.95595496738943697</v>
+        <v>0.95879946962244034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.95869965605201768</v>
+        <v>0.96091943164531646</v>
       </c>
       <c r="B3">
-        <v>0.94687732180075834</v>
+        <v>0.9490242810054873</v>
       </c>
       <c r="C3">
-        <v>0.97052199030327702</v>
+        <v>0.97281458228514561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.96636407457738427</v>
+        <v>0.96748983934178334</v>
       </c>
       <c r="B4">
-        <v>0.95329917081251103</v>
+        <v>0.95434155648727803</v>
       </c>
       <c r="C4">
-        <v>0.97942897834225751</v>
+        <v>0.98063812219628865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.96223451960721662</v>
+        <v>0.96507096766720157</v>
       </c>
       <c r="B5">
-        <v>0.94686810837377566</v>
+        <v>0.94993816000297726</v>
       </c>
       <c r="C5">
-        <v>0.97760093084065758</v>
+        <v>0.98020377533142589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.97240166643383641</v>
+        <v>0.97594853568365647</v>
       </c>
       <c r="B6">
-        <v>0.95601120176501642</v>
+        <v>0.95962760992085028</v>
       </c>
       <c r="C6">
-        <v>0.9887921311026564</v>
+        <v>0.99226946144646266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.97060508957778313</v>
+        <v>0.97704682882088589</v>
       </c>
       <c r="B7">
-        <v>0.951374467185093</v>
+        <v>0.95756645169665899</v>
       </c>
       <c r="C7">
-        <v>0.98983571197047326</v>
+        <v>0.99652720594511279</v>
       </c>
     </row>
   </sheetData>
